--- a/back/excel/2019122304.xlsx
+++ b/back/excel/2019122304.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="C7" s="3" t="n"/>
